--- a/eval_state_G.xlsx
+++ b/eval_state_G.xlsx
@@ -30,9 +30,6 @@
     <t>FL</t>
   </si>
   <si>
-    <t>SD, ND</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -54,7 +51,10 @@
     <t>Prc Global</t>
   </si>
   <si>
-    <t>Hors FL, ND, SD</t>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Hors FL, NY</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,48 +177,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,7 +192,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -240,13 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +513,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,242 +526,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19">
-        <f>C5-(C4+C3)</f>
-        <v>81940</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="18">
+        <f>C5-C4-C3</f>
+        <v>68743</v>
+      </c>
+      <c r="D2" s="19">
         <f>C2/$C$5</f>
-        <v>0.84466389716418067</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F2" s="19">
-        <f>C2*(1-E2)</f>
-        <v>70386.459999999992</v>
-      </c>
-      <c r="G2" s="27">
-        <f>C2-F2</f>
-        <v>11553.540000000008</v>
-      </c>
+        <v>0.70862497294065496</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
-        <v>14605</v>
+        <v>13661</v>
       </c>
       <c r="D3" s="7">
         <f>C3/$C$5</f>
-        <v>0.15055304147037904</v>
-      </c>
-      <c r="E3" s="8">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <f>C3*(1-E3)</f>
-        <v>13480.415000000001</v>
-      </c>
-      <c r="G3" s="9">
-        <f>C3-F3</f>
-        <v>1124.5849999999991</v>
-      </c>
-      <c r="H3" s="1">
-        <f>G3+G2</f>
-        <v>12678.125000000007</v>
-      </c>
+        <v>0.14082198558896597</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>464</v>
+        <v>14605</v>
       </c>
       <c r="D4" s="7">
         <f>C4/$C$5</f>
-        <v>4.7830613654403203E-3</v>
-      </c>
-      <c r="E4" s="10">
+        <v>0.15055304147037904</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="1">
+        <f>G2+G3+G4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="6">
-        <f>C4</f>
-        <v>464</v>
-      </c>
-      <c r="G4" s="9">
-        <f>F4-C4</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
         <v>97009</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="7">
         <f>C5/$C$5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="8">
         <v>0.124899</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <f>C5*(1-E5)</f>
         <v>84892.672909000001</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="9">
         <f>C5-F5</f>
         <v>12116.327090999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19">
-        <f>C9-(C8+C7)</f>
-        <v>47087</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="18">
+        <f>C9-C8-C7</f>
+        <v>39878</v>
+      </c>
+      <c r="D6" s="19">
         <f>C6/$C$9</f>
-        <v>0.84512527819656835</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F6" s="19">
-        <f>C6*(1-E6)</f>
-        <v>40447.733</v>
-      </c>
-      <c r="G6" s="27">
-        <f>C6-F6</f>
-        <v>6639.2669999999998</v>
-      </c>
+        <v>0.7157369516835379</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>8368</v>
+        <v>7470</v>
       </c>
       <c r="D7" s="7">
         <f>C7/$C$9</f>
-        <v>0.15019025055639312</v>
-      </c>
-      <c r="E7" s="8">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <f>C7*(1-E7)</f>
-        <v>7723.6640000000007</v>
-      </c>
-      <c r="G7" s="9">
-        <f>C7-F7</f>
-        <v>644.33599999999933</v>
-      </c>
-      <c r="H7" s="1">
-        <f>G7+G6</f>
-        <v>7283.6029999999992</v>
-      </c>
+        <v>0.13407279776006892</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>261</v>
+        <v>8368</v>
       </c>
       <c r="D8" s="7">
         <f>C8/$C$9</f>
-        <v>4.6844712470385528E-3</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <f>C8</f>
-        <v>261</v>
-      </c>
-      <c r="G8" s="9">
-        <f>F8-C8</f>
-        <v>0</v>
-      </c>
+        <v>0.15019025055639312</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
         <v>55716</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <f>C9/$C$9</f>
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.124899</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>C9*(1-E9)</f>
         <v>48757.127315999998</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <f>C9-F9</f>
         <v>6958.8726840000018</v>
       </c>
